--- a/cypress/downloads/Agents_20251117.xlsx
+++ b/cypress/downloads/Agents_20251117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Agent Name</t>
   </si>
@@ -26,6 +26,48 @@
     <t>Agent Teams</t>
   </si>
   <si>
+    <t>Desouky 417</t>
+  </si>
+  <si>
+    <t>417_Desouky@ntchnco.com</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Desouky123 291</t>
+  </si>
+  <si>
+    <t>291_Desouky29999@ntchnco.com</t>
+  </si>
+  <si>
+    <t>Desouky 503</t>
+  </si>
+  <si>
+    <t>503_Desouky@ntchnco.com</t>
+  </si>
+  <si>
+    <t>Desouky 548</t>
+  </si>
+  <si>
+    <t>548_Desouky@ntchnco.com</t>
+  </si>
+  <si>
+    <t>Desouky 961</t>
+  </si>
+  <si>
+    <t>961_Desouky@ntchnco.com</t>
+  </si>
+  <si>
+    <t>Desouky</t>
+  </si>
+  <si>
+    <t>Desouky@ntchnco.com</t>
+  </si>
+  <si>
     <t>Axon Agent 1234</t>
   </si>
   <si>
@@ -35,16 +77,10 @@
     <t>Not Active</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Axon Agent 123</t>
   </si>
   <si>
     <t>AxonAgent123@gmail.com</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -101,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -143,9 +179,93 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
